--- a/Win32/Binaries/Table/sevendaystrainning.xlsx
+++ b/Win32/Binaries/Table/sevendaystrainning.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\design\Data\内置活动配置\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="12600"/>
   </bookViews>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="佣兵表1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>int</t>
   </si>
@@ -117,57 +122,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>进行%d次玉器合成操作</t>
+  </si>
+  <si>
+    <t>进行%d次玉器合成操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%d次伶人招募</t>
+  </si>
+  <si>
+    <t>进行%d次伶人招募</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%d次饰品洗练操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任意十二宗宫关卡%d次</t>
+  </si>
+  <si>
+    <t>挑战任意十二宗宫关卡%d次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战多人副本%d次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战招福集市%d次</t>
+  </si>
+  <si>
+    <t>挑战招福集市%d次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%d次体力购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行%d次拜财神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>刷新神秘商店%d次</t>
-  </si>
-  <si>
-    <t>进行%d次玉器合成操作</t>
-  </si>
-  <si>
-    <t>进行%d次玉器合成操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行%d次伶人招募</t>
-  </si>
-  <si>
-    <t>进行%d次伶人招募</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行%d次饰品洗练操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战任意十二宗宫关卡%d次</t>
-  </si>
-  <si>
-    <t>挑战任意十二宗宫关卡%d次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战多人副本%d次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战招福集市%d次</t>
-  </si>
-  <si>
-    <t>挑战招福集市%d次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行%d次体力购买</t>
-  </si>
-  <si>
-    <t>进行%d次体力购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行%d次拜财神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新神秘商店%d次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,13 +205,7 @@
   </si>
   <si>
     <t>升级任意技能%d次</t>
-  </si>
-  <si>
-    <t>升级任意技能%d次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在京剧猫商店购买%d次商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在京剧猫商店购买%d次商品</t>
@@ -259,27 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行%d次同步PVP挑战</t>
-  </si>
-  <si>
-    <t>成功挑战冒险中的任意关卡，扫荡也可以</t>
-  </si>
-  <si>
-    <t>强化任意装备2次</t>
-  </si>
-  <si>
-    <t>成功挑战任意大师关卡%次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,100;1,2,500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一条提示文案稍后细化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成功通关任意关卡%d次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,26 +268,186 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>进行%d次排位赛挑战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id第一位数字代表是第几天的任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备在行头功能里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主界面进入玉器界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡冒险里的精英关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击顶部的铜钱进入拜财神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主界面的赏罚令进入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从京剧猫的图鉴界面进入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用行头里闲置的饰品洗炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成功挑战多人副本%d次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行%d次排位赛挑战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务id第一位数字代表是第几天的任务</t>
+    <t>从主界面的巴山试炼进入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任意招福集市关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任意十二宗宫关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新珍宝商店%d次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新珍宝阁里的珍宝页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关或扫荡冒险里的关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关或扫荡冒险里的大师关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战勇气试炼里的敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战排位赛里的其他玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任意难度的无限挑战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意宗宫的最后一关为宗主关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级任意招式%d次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主界面进入招式界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功挑战任意大师关卡%d次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关或扫荡冒险里的关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000;1,2,50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000;12,1001,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;1,6,500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;1,2,50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,20000;1,6,1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000;12,2001,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,3001,1;12,4001,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000;12,5001,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000;12,6001,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;12,1002,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;12,2002,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;12,3002,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;12,4002,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;12,5002,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;12,6002,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1,5;11,1002,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1,5;11,1001,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,4003,1;12,3003,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,12 +478,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -369,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +532,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,18 +845,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E23"/>
+      <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
@@ -726,14 +873,14 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -750,14 +897,14 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -773,848 +920,898 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6">
+        <v>801</v>
+      </c>
       <c r="E3" s="2">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6">
+        <v>101</v>
+      </c>
       <c r="E4" s="2">
-        <v>1003</v>
+        <v>3002</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1">
+        <v>201</v>
       </c>
       <c r="E5" s="2">
-        <v>1004</v>
+        <v>3003</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6">
+        <v>401</v>
+      </c>
       <c r="E6" s="2">
-        <v>1002</v>
+        <v>3004</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>20001</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2">
-        <v>1014</v>
-      </c>
-      <c r="F7" s="2">
+        <v>69</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3014</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>20002</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="C8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6">
+        <v>802</v>
+      </c>
       <c r="E8" s="2">
-        <v>1015</v>
+        <v>3006</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>20003</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <v>1303</v>
+      </c>
       <c r="E9" s="1">
-        <v>1010</v>
+        <v>3007</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>30001</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="6">
+        <v>701</v>
+      </c>
       <c r="E10" s="1">
-        <v>1006</v>
+        <v>3008</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>30002</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6">
+        <v>502</v>
+      </c>
       <c r="E11" s="1">
-        <v>1013</v>
+        <v>3009</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>30003</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1">
+        <v>103</v>
       </c>
       <c r="E12" s="1">
-        <v>1005</v>
+        <v>3010</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>40001</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <v>803</v>
+      </c>
       <c r="E13" s="1">
-        <v>1012</v>
+        <v>3015</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>40002</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1501</v>
       </c>
       <c r="E14" s="1">
-        <v>1007</v>
+        <v>3012</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>40003</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1901</v>
       </c>
       <c r="E15" s="1">
-        <v>1011</v>
+        <v>3013</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>50001</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2003</v>
       </c>
       <c r="E16" s="1">
-        <v>1009</v>
+        <v>3014</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>50002</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1601</v>
       </c>
       <c r="E17" s="1">
-        <v>1008</v>
+        <v>3011</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>50003</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1001</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1802</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3016</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>60001</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1003</v>
+        <v>56</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1702</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3017</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>60002</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="6">
+        <v>801</v>
       </c>
       <c r="E20" s="2">
-        <v>1004</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
+        <v>3001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>60003</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1002</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1801</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3019</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>70001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1014</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1901</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3013</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>70002</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1015</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1901</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3021</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G24" s="2"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G25" s="2"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G26" s="2"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G27" s="2"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="G28" s="2"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G29" s="2"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G30" s="2"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G31" s="2"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G32" s="2"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="7:11">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G33" s="2"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="7:11">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G34" s="2"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="7:11">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G35" s="2"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="7:11">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G36" s="2"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="7:11">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G37" s="2"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="7:11">
+    <row r="38" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G38" s="2"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="7:11">
+    <row r="39" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G39" s="2"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="7:11">
+    <row r="40" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G40" s="2"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="7:11">
+    <row r="41" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G41" s="2"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="7:11">
+    <row r="42" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G42" s="2"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="7:11">
+    <row r="43" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G43" s="2"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="7:11">
+    <row r="44" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G44" s="2"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="7:11">
+    <row r="45" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G45" s="2"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="7:11">
+    <row r="46" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G46" s="2"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="7:11">
+    <row r="47" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G47" s="2"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="7:11">
+    <row r="48" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G48" s="2"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="7:11">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G49" s="2"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="7:11">
+    <row r="50" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G50" s="2"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="7:11">
+    <row r="51" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G51" s="2"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="7:11">
+    <row r="52" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G52" s="2"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="7:11">
+    <row r="53" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G53" s="2"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="7:11">
+    <row r="54" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G54" s="2"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="7:11">
+    <row r="55" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G55" s="2"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="7:11">
+    <row r="56" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G56" s="2"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="7:11">
+    <row r="57" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G57" s="2"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="7:11">
+    <row r="58" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G58" s="2"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="7:11">
+    <row r="59" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G59" s="2"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="7:11">
+    <row r="60" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G60" s="2"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="7:11">
+    <row r="61" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G61" s="2"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="7:11">
+    <row r="62" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G62" s="2"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="7:11">
+    <row r="63" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G63" s="2"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="7:11">
+    <row r="64" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G64" s="2"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="7:11">
+    <row r="65" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G65" s="2"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="7:11">
+    <row r="66" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G66" s="2"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="7:11">
+    <row r="67" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G67" s="2"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="7:11">
+    <row r="68" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G68" s="2"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="7:11">
+    <row r="69" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G69" s="2"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="7:11">
+    <row r="70" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G70" s="2"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="7:11">
+    <row r="71" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G71" s="2"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="7:11">
+    <row r="72" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G72" s="2"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="7:11">
+    <row r="73" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G73" s="2"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="7:11">
+    <row r="74" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G74" s="2"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="7:11">
+    <row r="75" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G75" s="2"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="7:11">
+    <row r="76" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G76" s="2"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="7:11">
+    <row r="77" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G77" s="2"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="7:11">
+    <row r="78" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G78" s="2"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="7:11">
+    <row r="79" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G79" s="2"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="7:11">
+    <row r="80" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G80" s="2"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="5:11">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G81" s="2"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="5:11">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G82" s="2"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="5:11">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G83" s="2"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="5:11">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G84" s="2"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="5:11">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G85" s="2"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="5:11">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="5:11">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="5:11">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="5:11">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="5:11">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="5:11">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="5:11">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="5:11">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="5:11">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="5:11">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="5:11">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="5:11">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="5:11">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="5:11">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="5:11">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="5:11">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="5:11">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="5:11">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="5:11">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="5:11">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="5:11">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="5:11">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="5:11">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="5:11">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="5:11">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="5:11">
+    <row r="111" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="5:11">
+    <row r="112" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="114" spans="7:7">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G114" s="2"/>
     </row>
   </sheetData>
@@ -1623,11 +1820,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1637,7 +1835,7 @@
       <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="4" bestFit="1" customWidth="1"/>
@@ -1648,18 +1846,18 @@
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
@@ -1671,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1717,12 +1915,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
@@ -1734,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -1749,12 +1947,12 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="3"/>
@@ -1762,12 +1960,12 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10004</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="3"/>
@@ -1775,12 +1973,12 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>20001</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="3"/>
@@ -1788,7 +1986,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20002</v>
       </c>
@@ -1801,12 +1999,12 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20003</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="3"/>
@@ -1814,12 +2012,12 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>30001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1827,12 +2025,12 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>30002</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1840,12 +2038,12 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>30003</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1853,12 +2051,12 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>40001</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1866,12 +2064,12 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>40002</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1879,12 +2077,12 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>40003</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1892,12 +2090,12 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>50001</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1905,12 +2103,12 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>50002</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1918,12 +2116,12 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>50003</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1931,12 +2129,12 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>60001</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1944,12 +2142,12 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>60002</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1957,12 +2155,12 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>60003</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1970,12 +2168,12 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>70001</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1983,22 +2181,22 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>70002</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="2"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2007,9 +2205,9 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
